--- a/더미데이터test/testSStock.xlsx
+++ b/더미데이터test/testSStock.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27810" windowHeight="11205"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="bom" sheetId="1" r:id="rId4"/>
@@ -14,30 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <x:si>
-    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-RT66 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알루미늄 더블림 29인치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레스타 밸브 60mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노RD-M4120 10단</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <x:si>
+    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
   </x:si>
   <x:si>
     <x:t>M-250508-002</x:t>
@@ -46,36 +31,60 @@
     <x:t>M-250508-001</x:t>
   </x:si>
   <x:si>
+    <x:t>M-250508-007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-250508-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-250508-004</x:t>
+  </x:si>
+  <x:si>
     <x:t>M-250508-006</x:t>
   </x:si>
   <x:si>
+    <x:t>M-250508-005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-250508-009</x:t>
+  </x:si>
+  <x:si>
     <x:t>M-250508-003</x:t>
   </x:si>
   <x:si>
-    <x:t>M-250508-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-250508-004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-250508-005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-250508-009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-250508-007</x:t>
-  </x:si>
-  <x:si>
     <x:t>M-250508-008</x:t>
   </x:si>
   <x:si>
     <x:t>M-250508-010</x:t>
   </x:si>
   <x:si>
+    <x:t>※현재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※부품 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※자재 코드</x:t>
+  </x:si>
+  <x:si>
     <x:t>자재 이름</x:t>
   </x:si>
   <x:si>
+    <x:t>※리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※단위 가격</x:t>
+  </x:si>
+  <x:si>
     <x:t>브레이크 레버 - 우</x:t>
   </x:si>
   <x:si>
@@ -88,37 +97,37 @@
     <x:t>※최소 발주 수량</x:t>
   </x:si>
   <x:si>
-    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※부품 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자식 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※현재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※리드타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※단위 가격</x:t>
+    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 500W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레인보우 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노9단 카세트 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 1.8mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>훔페르트 컨테스트 핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6000 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노PD-M520L 페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배터리</x:t>
   </x:si>
   <x:si>
     <x:t>로터</x:t>
@@ -127,13 +136,37 @@
     <x:t>밸브</x:t>
   </x:si>
   <x:si>
-    <x:t>경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>림</x:t>
+    <x:t>스탠다드 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp242 시트포스트[레일식]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할로겐 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 29인치 1.5~1.75 프레스타 튜브 40mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브러시리스 기어드 허브 모터 방수 9 핀 36V 250W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MTB프론트 서스펜션 사이클링 앞 쇼바 알루미늄 포크</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -260,12 +293,15 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -982,7 +1018,7 @@
   <x:dimension ref="A1:G84"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K17" activeCellId="0" sqref="K17:K17"/>
+      <x:selection activeCell="G17" activeCellId="0" sqref="G17:G17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -998,36 +1034,36 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D2">
         <x:v>1000</x:v>
@@ -1044,13 +1080,13 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="D3">
         <x:v>1000</x:v>
@@ -1067,13 +1103,13 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="C4" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D4">
         <x:v>1450</x:v>
@@ -1092,11 +1128,11 @@
       <x:c r="A5" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B5" t="s">
-        <x:v>4</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D5">
         <x:v>2500</x:v>
@@ -1113,13 +1149,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6">
         <x:v>2200</x:v>
@@ -1136,13 +1172,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7">
         <x:v>1800</x:v>
@@ -1159,13 +1195,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8">
         <x:v>1700</x:v>
@@ -1182,13 +1218,13 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C9" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="D9">
         <x:v>500</x:v>
@@ -1205,13 +1241,13 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D10">
         <x:v>600</x:v>
@@ -1228,13 +1264,13 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11">
         <x:v>800</x:v>
@@ -1251,13 +1287,13 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D12">
         <x:v>1500</x:v>
@@ -1270,6 +1306,61 @@
       </x:c>
       <x:c r="G12">
         <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:2">
+      <x:c r="B13" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:2">
+      <x:c r="B14" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:2">
+      <x:c r="B15" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:2">
+      <x:c r="B16" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:2">
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:2">
+      <x:c r="B18" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:2">
+      <x:c r="B19" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:2">
+      <x:c r="B20" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:2">
+      <x:c r="B21" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:2">
+      <x:c r="B22" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:2">
+      <x:c r="B23" s="2" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2">
